--- a/Implicit_bias_pavlovia/task/incong_test.xlsx
+++ b/Implicit_bias_pavlovia/task/incong_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50B7F2-8EE8-4B3F-A1DE-088FF7332C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5026018-7DCB-4B46-B432-40B2350575D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jonathan Peirce:</t>
         </r>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ideally we would just set the image to be blank for no-image trials but by 3.2.0 the online lib needs to have some image there (and then can set its opacity to be 0 to hide</t>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>CorrAns</t>
   </si>
@@ -143,13 +143,16 @@
   </si>
   <si>
     <t>Desagradable</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +171,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +495,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,6 +519,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -516,6 +530,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -524,6 +541,9 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -532,6 +552,9 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -540,6 +563,9 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -548,6 +574,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -556,6 +585,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -564,6 +596,9 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -572,6 +607,9 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -580,6 +618,9 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -696,6 +737,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>